--- a/src/main/resources/excels/check_product_detail_sf/Supplier management.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Supplier management.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>TestCase ID</t>
   </si>

--- a/src/main/resources/excels/check_product_detail_sf/Supplier management.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Supplier management.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -488,7 +488,7 @@
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>28</v>
       </c>
       <c r="F2" s="2"/>
@@ -506,7 +506,7 @@
       <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>28</v>
       </c>
       <c r="F3" s="2"/>
@@ -524,7 +524,7 @@
       <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>28</v>
       </c>
       <c r="F4" s="2"/>
@@ -542,7 +542,7 @@
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>28</v>
       </c>
       <c r="F5" s="2"/>
@@ -560,7 +560,7 @@
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>28</v>
       </c>
       <c r="F6" s="2"/>
@@ -578,7 +578,7 @@
       <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>28</v>
       </c>
       <c r="F7" s="2"/>

--- a/src/main/resources/excels/check_product_detail_sf/Supplier management.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Supplier management.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -507,7 +510,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -525,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -543,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -561,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -579,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2"/>
     </row>

--- a/src/main/resources/excels/check_product_detail_sf/Supplier management.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Supplier management.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -510,7 +510,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -546,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
     </row>

--- a/src/main/resources/excels/check_product_detail_sf/Supplier management.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Supplier management.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>TestCase ID</t>
   </si>
